--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt10a-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt10a-Fzd5.xlsx
@@ -537,16 +537,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.04910500000000001</v>
+        <v>0.1292686666666667</v>
       </c>
       <c r="H2">
-        <v>0.147315</v>
+        <v>0.387806</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.343367666666667</v>
+        <v>2.815739333333333</v>
       </c>
       <c r="N2">
-        <v>7.030103</v>
+        <v>8.447217999999999</v>
       </c>
       <c r="O2">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="P2">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="Q2">
-        <v>0.1150710692716667</v>
+        <v>0.3639868693008889</v>
       </c>
       <c r="R2">
-        <v>1.035639623445</v>
+        <v>3.275881823708</v>
       </c>
       <c r="S2">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
       <c r="T2">
-        <v>0.07041630712807322</v>
+        <v>0.07700398964630729</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.04910500000000001</v>
+        <v>0.1292686666666667</v>
       </c>
       <c r="H3">
-        <v>0.147315</v>
+        <v>0.387806</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>14.527783</v>
       </c>
       <c r="O3">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="P3">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="Q3">
-        <v>0.2377955947383334</v>
+        <v>0.6259957126775556</v>
       </c>
       <c r="R3">
-        <v>2.140160352645</v>
+        <v>5.633961414098</v>
       </c>
       <c r="S3">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
       <c r="T3">
-        <v>0.1455160514174545</v>
+        <v>0.1324338085883186</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.04910500000000001</v>
+        <v>0.1292686666666667</v>
       </c>
       <c r="H4">
-        <v>0.147315</v>
+        <v>0.387806</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.196962666666667</v>
+        <v>5.537790999999999</v>
       </c>
       <c r="N4">
-        <v>12.590888</v>
+        <v>16.613373</v>
       </c>
       <c r="O4">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="P4">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="Q4">
-        <v>0.2060918517466667</v>
+        <v>0.7158628588486666</v>
       </c>
       <c r="R4">
-        <v>1.85482666572</v>
+        <v>6.442765729637999</v>
       </c>
       <c r="S4">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
       <c r="T4">
-        <v>0.1261153409022843</v>
+        <v>0.1514458372546134</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.04910500000000001</v>
+        <v>0.1292686666666667</v>
       </c>
       <c r="H5">
-        <v>0.147315</v>
+        <v>0.387806</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.828011333333333</v>
+        <v>1.188595666666667</v>
       </c>
       <c r="N5">
-        <v>5.484033999999999</v>
+        <v>3.565787</v>
       </c>
       <c r="O5">
-        <v>0.05493026523861683</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="P5">
-        <v>0.05493026523861682</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="Q5">
-        <v>0.08976449652333335</v>
+        <v>0.1536481770357778</v>
       </c>
       <c r="R5">
-        <v>0.8078804687100001</v>
+        <v>1.382833593322</v>
       </c>
       <c r="S5">
-        <v>0.05493026523861683</v>
+        <v>0.03250535563648733</v>
       </c>
       <c r="T5">
-        <v>0.05493026523861682</v>
+        <v>0.03250535563648733</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.04910500000000001</v>
+        <v>0.1292686666666667</v>
       </c>
       <c r="H6">
-        <v>0.147315</v>
+        <v>0.387806</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.01164366666667</v>
+        <v>18.85109966666667</v>
       </c>
       <c r="N6">
-        <v>45.034931</v>
+        <v>56.553299</v>
       </c>
       <c r="O6">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="P6">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="Q6">
-        <v>0.7371467622516668</v>
+        <v>2.436856519110445</v>
       </c>
       <c r="R6">
-        <v>6.634320860265001</v>
+        <v>21.931708671994</v>
       </c>
       <c r="S6">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
       <c r="T6">
-        <v>0.451087776777607</v>
+        <v>0.5155341854158992</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.04910500000000001</v>
+        <v>0.1292686666666667</v>
       </c>
       <c r="H7">
-        <v>0.147315</v>
+        <v>0.387806</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.056184333333333</v>
+        <v>3.330328666666666</v>
       </c>
       <c r="N7">
-        <v>15.168553</v>
+        <v>9.990985999999999</v>
       </c>
       <c r="O7">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="P7">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="Q7">
-        <v>0.2482839316883334</v>
+        <v>0.4305071463017778</v>
       </c>
       <c r="R7">
-        <v>2.234555385195</v>
+        <v>3.874564316716</v>
       </c>
       <c r="S7">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
       <c r="T7">
-        <v>0.151934258535964</v>
+        <v>0.09107682345837424</v>
       </c>
     </row>
   </sheetData>
